--- a/trained_models_old_clean/MLP/redwine_quality/results_table.xlsx
+++ b/trained_models_old_clean/MLP/redwine_quality/results_table.xlsx
@@ -504,11 +504,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.4562309056652962, 'beta_2': 0.8239729079090322, 'epsilon': 0.6679372419381273, 'learning_rate': 'invscaling', 'momentum': 0.47314297846564424, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.733289134316726}</t>
+          <t>{'beta_1': 0.318152772679051, 'beta_2': 0.8413259323375559, 'epsilon': 0.8579980526540874, 'learning_rate': 'constant', 'momentum': 0.566088448063145, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.30128918764272283}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -540,11 +540,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.05100201162723169, 'beta_2': 0.33093761141243355, 'epsilon': 0.32000596022432076, 'learning_rate': 'adaptive', 'momentum': 0.33828139189745543, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.8664586694893915}</t>
+          <t>{'beta_1': 0.1076710352740956, 'beta_2': 0.23068500855019158, 'epsilon': 0.9444632775429541, 'learning_rate': 'invscaling', 'momentum': 0.3800345760236875, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6946109034163818}</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.5729166666666666</v>
       </c>
     </row>
     <row r="4">
@@ -576,11 +576,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5271870108472929, 'beta_2': 0.23728561484836336, 'epsilon': 0.27103479515720774, 'learning_rate': 'invscaling', 'momentum': 0.5323203282585608, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5171213804274264}</t>
+          <t>{'beta_1': 0.7907242244267251, 'beta_2': 0.12912836178219447, 'epsilon': 0.5021829041693544, 'learning_rate': 'constant', 'momentum': 0.2256774524328019, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.02510953817714312}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.5625</v>
+        <v>0.5708333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -612,11 +612,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.4681107689374008, 'beta_2': 0.21364682348509959, 'epsilon': 0.8885808137686589, 'learning_rate': 'adaptive', 'momentum': 0.8560349969338062, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2018381334111935}</t>
+          <t>{'beta_1': 0.34451173003612534, 'beta_2': 0.10100638307292784, 'epsilon': 0.31806055772951036, 'learning_rate': 'invscaling', 'momentum': 0.8112588995548236, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9016504359672537}</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.5604166666666667</v>
+        <v>0.5729166666666666</v>
       </c>
     </row>
     <row r="6">
@@ -648,11 +648,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5216536931331169, 'beta_2': 0.8527524362539758, 'epsilon': 0.8885584609070507, 'learning_rate': 'constant', 'momentum': 0.11804156469474747, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.49159142716951554}</t>
+          <t>{'beta_1': 0.9756639553354612, 'beta_2': 0.7959082969442735, 'epsilon': 0.292883275730234, 'learning_rate': 'invscaling', 'momentum': 0.26420426422417276, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.4742667929910924}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.575</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="7">
@@ -684,11 +684,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5694768312146749, 'beta_2': 0.7450179703622319, 'epsilon': 0.3526833540570616, 'learning_rate': 'invscaling', 'momentum': 0.9160233696334701, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6827553511108365}</t>
+          <t>{'beta_1': 0.144476937515464, 'beta_2': 0.761011394000851, 'epsilon': 0.9236343742421546, 'learning_rate': 'constant', 'momentum': 0.5890983591262915, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.007913253289598021}</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.5645833333333333</v>
+        <v>0.5541666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -720,11 +720,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.18678021333564818, 'beta_2': 0.6738733596115727, 'epsilon': 0.2767890965633854, 'learning_rate': 'constant', 'momentum': 0.04866731114905576, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.8906310472988932}</t>
+          <t>{'beta_1': 0.3759651167322159, 'beta_2': 0.06171729066506716, 'epsilon': 0.38508415698973375, 'learning_rate': 'constant', 'momentum': 0.9881924181265406, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.7921537410440993}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.5708333333333333</v>
+        <v>0.58125</v>
       </c>
     </row>
     <row r="9">
@@ -756,11 +756,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.28685443267485683, 'beta_2': 0.44629001466989243, 'epsilon': 0.12367189482556977, 'learning_rate': 'constant', 'momentum': 0.9792702400358185, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.8809980607861312}</t>
+          <t>{'beta_1': 0.4681107689374008, 'beta_2': 0.21364682348509959, 'epsilon': 0.8885808137686589, 'learning_rate': 'adaptive', 'momentum': 0.8560349969338062, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2018381334111935}</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.5708333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
     </row>
     <row r="10">
@@ -792,11 +792,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6559484946101716, 'beta_2': 0.37346672868995284, 'epsilon': 0.7842813127380445, 'learning_rate': 'adaptive', 'momentum': 0.5082713750461963, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.44787809291973113}</t>
+          <t>{'beta_1': 0.530006677348219, 'beta_2': 0.9211893503054258, 'epsilon': 0.0894050504878672, 'learning_rate': 'invscaling', 'momentum': 0.15362753737206158, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9061718405949403}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.5729166666666666</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="11">
@@ -828,11 +828,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.44874854048015367, 'beta_2': 0.9775923574922963, 'epsilon': 0.11608570770278201, 'learning_rate': 'adaptive', 'momentum': 0.8137978197024772, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.24979627565497808}</t>
+          <t>{'beta_1': 0.014098081586815765, 'beta_2': 0.1504884157773467, 'epsilon': 0.8735712718449334, 'learning_rate': 'invscaling', 'momentum': 0.2769161608365044, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.25404981712446695}</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.575</v>
+        <v>0.5708333333333333</v>
       </c>
     </row>
     <row r="12">
@@ -864,11 +864,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.9709730574971661, 'beta_2': 0.8773152778758297, 'epsilon': 0.5091147523431803, 'learning_rate': 'constant', 'momentum': 0.604845519745046, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.44171092124884537}</t>
+          <t>{'beta_1': 0.8717780047919479, 'beta_2': 0.27326849278082016, 'epsilon': 0.7972487870786511, 'learning_rate': 'invscaling', 'momentum': 0.6798794564067695, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.48340861659875267}</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.5729166666666666</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="13">
@@ -900,11 +900,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5958366322842731, 'beta_2': 0.11740811726073401, 'epsilon': 0.9749079845501148, 'learning_rate': 'adaptive', 'momentum': 0.3917969385646658, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.2244669384017105}</t>
+          <t>{'beta_1': 0.7167682396362478, 'beta_2': 0.6101548241976318, 'epsilon': 0.6943929545621215, 'learning_rate': 'invscaling', 'momentum': 0.620519983565336, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.41578751304691375}</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.5625</v>
+        <v>0.5645833333333333</v>
       </c>
     </row>
     <row r="14">
@@ -936,11 +936,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.880286526374104, 'beta_2': 0.8956147508012579, 'epsilon': 0.36698304972104845, 'learning_rate': 'invscaling', 'momentum': 0.7721249928010511, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.10018511110802708}</t>
+          <t>{'beta_1': 0.6520504287434347, 'beta_2': 0.939530597109095, 'epsilon': 0.271314566053248, 'learning_rate': 'invscaling', 'momentum': 0.8603830798416068, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5541987569863228}</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.58125</v>
+        <v>0.5770833333333333</v>
       </c>
     </row>
     <row r="15">
@@ -972,7 +972,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6975502293404723, 'beta_2': 0.33516267150622375, 'epsilon': 0.14753789262850064, 'learning_rate': 'invscaling', 'momentum': 0.24190170420148482, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5219962736299825}</t>
+          <t>{'beta_1': 0.5464162891792802, 'beta_2': 0.8532828757804921, 'epsilon': 0.039163098458236005, 'learning_rate': 'invscaling', 'momentum': 0.7697890206778347, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.31538720413305543}</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5694768312146749, 'beta_2': 0.7450179703622319, 'epsilon': 0.3526833540570616, 'learning_rate': 'invscaling', 'momentum': 0.9160233696334701, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6827553511108365}</t>
+          <t>{'beta_1': 0.8013857329555096, 'beta_2': 0.27456954982004717, 'epsilon': 0.7882252319748868, 'learning_rate': 'adaptive', 'momentum': 0.43696518540025087, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9700310320731962}</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.5708333333333333</v>
+        <v>0.5958333333333333</v>
       </c>
     </row>
     <row r="17">
@@ -1044,11 +1044,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.7167682396362478, 'beta_2': 0.6101548241976318, 'epsilon': 0.6943929545621215, 'learning_rate': 'invscaling', 'momentum': 0.620519983565336, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.41578751304691375}</t>
+          <t>{'beta_1': 0.18086062984940418, 'beta_2': 0.7629831203210261, 'epsilon': 0.06128419048861812, 'learning_rate': 'constant', 'momentum': 0.8258616403155806, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.23856602572266783}</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.5625</v>
+        <v>0.5645833333333333</v>
       </c>
     </row>
     <row r="18">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.039183077977318834, 'beta_2': 0.42971547473554383, 'epsilon': 0.43082207145567586, 'learning_rate': 'invscaling', 'momentum': 0.5023932939071011, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6455442945794939}</t>
+          <t>{'beta_1': 0.06297525137970737, 'beta_2': 0.555093593527375, 'epsilon': 0.009230833413054227, 'learning_rate': 'invscaling', 'momentum': 0.7851529120231378, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5864101661863267}</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1116,11 +1116,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.28685443267485683, 'beta_2': 0.44629001466989243, 'epsilon': 0.12367189482556977, 'learning_rate': 'constant', 'momentum': 0.9792702400358185, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.8809980607861312}</t>
+          <t>{'beta_1': 0.05100201162723169, 'beta_2': 0.33093761141243355, 'epsilon': 0.32000596022432076, 'learning_rate': 'adaptive', 'momentum': 0.33828139189745543, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.8664586694893915}</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.5625</v>
+        <v>0.40625</v>
       </c>
     </row>
     <row r="20">
@@ -1152,11 +1152,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.11370282374947131, 'beta_2': 0.6304944160294864, 'epsilon': 0.13268218376992516, 'learning_rate': 'constant', 'momentum': 0.3742961833209161, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.23780724253903884}</t>
+          <t>{'beta_1': 0.6292719678840203, 'beta_2': 0.7743630713990834, 'epsilon': 0.4046364487929541, 'learning_rate': 'invscaling', 'momentum': 0.0015945706042945762, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.7791109940193555}</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.56875</v>
+        <v>0.5645833333333333</v>
       </c>
     </row>
     <row r="21">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.06297525137970737, 'beta_2': 0.555093593527375, 'epsilon': 0.009230833413054227, 'learning_rate': 'invscaling', 'momentum': 0.7851529120231378, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5864101661863267}</t>
+          <t>{'beta_1': 0.18086062984940418, 'beta_2': 0.7629831203210261, 'epsilon': 0.06128419048861812, 'learning_rate': 'constant', 'momentum': 0.8258616403155806, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.23856602572266783}</t>
         </is>
       </c>
       <c r="H21" t="n">
